--- a/amelioration-mapping/ig/StructureDefinition-ror-location-residential-capacity.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-location-residential-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T07:25:47+00:00</t>
+    <t>2024-03-12T09:15:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -318,9 +318,6 @@
     <t>residentialType</t>
   </si>
   <si>
-    <t>typeHabitation : JDV-J32-TypeHabitation-ROR</t>
-  </si>
-  <si>
     <t>Extension.extension:residentialType.id</t>
   </si>
   <si>
@@ -387,13 +384,13 @@
 </t>
   </si>
   <si>
+    <t>typeHabitation</t>
+  </si>
+  <si>
     <t>Extension.extension:residentialNumber</t>
   </si>
   <si>
     <t>residentialNumber</t>
-  </si>
-  <si>
-    <t>nbHabitation</t>
   </si>
   <si>
     <t>Extension.extension:residentialNumber.id</t>
@@ -410,6 +407,9 @@
   <si>
     <t xml:space="preserve">integer
 </t>
+  </si>
+  <si>
+    <t>nbHabitation</t>
   </si>
   <si>
     <t>base64Binary
@@ -1311,15 +1311,15 @@
         <v>76</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1422,10 +1422,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1528,10 +1528,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1554,16 +1554,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1613,22 +1613,22 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>76</v>
@@ -1636,10 +1636,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1662,13 +1662,13 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1695,29 +1695,29 @@
         <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -1729,13 +1729,13 @@
         <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AL9" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AK9" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="10">
@@ -1843,15 +1843,15 @@
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>123</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1954,10 +1954,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2060,10 +2060,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2086,16 +2086,16 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2145,22 +2145,22 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>76</v>
@@ -2168,10 +2168,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2194,13 +2194,13 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2251,7 +2251,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -2263,21 +2263,21 @@
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2300,16 +2300,16 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2359,22 +2359,22 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -2382,10 +2382,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2411,10 +2411,10 @@
         <v>129</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2465,7 +2465,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -2477,10 +2477,10 @@
         <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>

--- a/amelioration-mapping/ig/StructureDefinition-ror-location-residential-capacity.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-location-residential-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T09:15:29+00:00</t>
+    <t>2024-03-12T16:16:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/amelioration-mapping/ig/StructureDefinition-ror-location-residential-capacity.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-location-residential-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T16:16:50+00:00</t>
+    <t>2024-03-12T16:39:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/amelioration-mapping/ig/StructureDefinition-ror-location-residential-capacity.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-location-residential-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T16:39:05+00:00</t>
+    <t>2024-03-12T17:01:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
